--- a/Texts/Город Сокровищ/Все персонажи/Кроганк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кроганк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -142,6 +142,114 @@
   </si>
   <si>
     <t xml:space="preserve"> Öå-öå-öå-öå-öå…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meh-heh-heh. That aroma\nwafting down from upstairs…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I don\'t mind it at all. Nope, it\'s\nquite all right with me. Meh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Этот аромат,\nдоносящийся сверху...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не возражаю его нюхать.\nНет, я даже не против него. Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Üóïó àñïíàó,\näïîïòÿþéêòÿ òâåñöô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå âïèñàçàý åãï îýöàóû.\nÎåó, ÿ äàçå îå ðñïóéâ îåãï. Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meh-heh-heh. I guess I get to\nenjoy this fine, ripe aroma for a while yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s another thing that makes me\nhappy. Meh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, by the way…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m almost done repairing my\nSwap Cauldron here…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When I\'m done fixing it, I\'ll\nbe sure to let you know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'ll finally learn what I\'m up\nto here. Meh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Кажется, я уже очень\nдавно наслаждаюсь этим чудесным, сочным\nароматом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Он одна из немногих вещей, что\nделают меня счастливым. Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, кстати...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я почти починил свой Обменный\nКотёл...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда я закончу его чинить, я\nдам вам об этом знать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наконец-то вы узнаете зачем я\nздесь. Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Ëàçåóòÿ, ÿ ôçå ïœåîû\näàâîï îàòìàçäàýòû üóéí œôäåòîúí, òïœîúí\nàñïíàóïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïî ïäîà éè îåíîïãéö âåþåê, œóï\näåìàýó íåîÿ òœàòóìéâúí. Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, ëòóàóé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïœóé ðïœéîéì òâïê Ïáíåîîúê\nËïóæì...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà ÿ èàëïîœô åãï œéîéóû, ÿ\näàí âàí ïá üóïí èîàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàëïîåø-óï âú ôèîàåóå èàœåí ÿ\nèäåòû. Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m almost done repairing my\nSwap Cauldron here... Almost, but not yet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll tell you when I\'m done. It\'s\nsomething you should look forward to.\nMeh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я почти закончил чинить свой\nОбменный Котёл... Почти, но это ещё не\nвсё.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда я закончу, я вам сообщу.\nЖдите этого. Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïœóé èàëïîœéì œéîéóû òâïê\nÏáíåîîúê Ëïóæì... Ðïœóé, îï üóï åþæ îå\nâòæ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà ÿ èàëïîœô, ÿ âàí òïïáþô.\nÇäéóå üóïãï. Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'re closing up the guild while\nwe\'re on the expedition. I have to leave my\nSwap Cauldron behind. Meh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can\'t do this while on the\nexpedition, so if you have anything to swap,\ndo it now. Meh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Во время экспедиции гильдия\nбудет закрыта. Мне придётся оставить\nздесь свой Обменный Котёл. Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В экспедиции я ничего не смогу\nобменять, поэтому если вам есть что\nменять, делайте это сейчас. Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âï âñåíÿ üëòðåäéøéé ãéìûäéÿ\náôäåó èàëñúóà. Íîå ðñéäæóòÿ ïòóàâéóû\nèäåòû òâïê Ïáíåîîúê Ëïóæì. Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â üëòðåäéøéé ÿ îéœåãï îå òíïãô\nïáíåîÿóû, ðïüóïíô åòìé âàí åòóû œóï\níåîÿóû, äåìàêóå üóï òåêœàò. Öå-öå-öå.</t>
   </si>
 </sst>
 </file>
@@ -520,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,17 +807,203 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
         <v>552</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>489</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
+        <v>492</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>443</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>446</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>449</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>458</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>467</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6">
+        <v>470</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>418</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>421</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6">
+        <v>424</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>393</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>396</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кроганк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кроганк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -250,6 +250,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Â üëòðåäéøéé ÿ îéœåãï îå òíïãô\nïáíåîÿóû, ðïüóïíô åòìé âàí åòóû œóï\níåîÿóû, äåìàêóå üóï òåêœàò. Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meh-heh-heh. Now that the\nexpedition is over, I\'m back in business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Back to doing swaps! My\nfavorite thing! Meh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Экспедиция кончилась\nи я снова в деле.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я снова меняю вещи! Это моё\nлюбимое занятие! Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Üëòðåäéøéÿ ëïîœéìàòû\né ÿ òîïâà â äåìå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òîïâà íåîÿý âåþé! Üóï íïæ\nìýáéíïå èàîÿóéå! Öå-öå-öå.</t>
   </si>
 </sst>
 </file>
@@ -628,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,17 +1011,46 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6">
         <v>396</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>366</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>369</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кроганк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кроганк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -268,6 +268,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ òîïâà íåîÿý âåþé! Üóï íïæ\nìýáéíïå èàîÿóéå! Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meh-heh-heh. Put my swapping\nto good use, you two…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Like for catching [CS:N]Grovyle[CR].\nMeh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Вы двое, найдите моим\nобменам полезное применение...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поймав [CS:N]Гровайла[CR], к примеру.\nХе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Âú äâïå, îàêäéóå íïéí\nïáíåîàí ðïìåèîïå ðñéíåîåîéå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïêíàâ [CS:N]Ãñïâàêìà[CR], ë ðñéíåñô.\nÖå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meh-heh-heh. You go on. Do your\ngood work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do it for those like me who just\nstay home. Meh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Идите же. Делайте\nсвоё дело.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Делайте его ради кого-то вроде\nменя, тех, кто остался здесь. Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Éäéóå çå. Äåìàêóå\nòâïæ äåìï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äåìàêóå åãï ñàäé ëïãï-óï âñïäå\níåîÿ, óåö, ëóï ïòóàìòÿ èäåòû. Öå-öå-öå.</t>
   </si>
 </sst>
 </file>
@@ -646,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,17 +1076,75 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6">
         <v>369</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="7" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>339</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6">
+        <v>342</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>312</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>315</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кроганк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кроганк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="116">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -304,6 +304,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Äåìàêóå åãï ñàäé ëïãï-óï âñïäå\níåîÿ, óåö, ëóï ïòóàìòÿ èäåòû. Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meh-heh-heh. It\'s good that you\ntwo made it back from the future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It makes me happy.\nMeh-heh-heh-heh!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Здорово, что вам\nудалось выбраться из будущего.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я очень этому рад. Хе-хе-хе-хе!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Èäïñïâï, œóï âàí\nôäàìïòû âúáñàóûòÿ éè áôäôþåãï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïœåîû üóïíô ñàä. Öå-öå-öå-öå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meh-heh-heh. Tomorrow, I\'m\ngoing too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To [CS:P]Brine Cave[CR]! Meh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Завтра я тоже туда\nпойду.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В [CS:P]Пещеру у Моря[CR]! Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Èàâóñà ÿ óïçå óôäà\nðïêäô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â [CS:P]Ðåþåñô ô Íïñÿ[CR]! Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meh-heh-heh. Hey, you two…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I know it\'s not easy, but you\ncan\'t fail now.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The world\'s at stake!\nMeh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Послушайте, вы двое...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я знаю, это нелегко, но нельзя\nсдаваться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мир на грани гибели! Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Ðïòìôšàêóå, âú äâïå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ èîàý, üóï îåìåãëï, îï îåìûèÿ\nòäàâàóûòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íéñ îà ãñàîé ãéáåìé! Öå-öå-öå.</t>
   </si>
 </sst>
 </file>
@@ -682,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,17 +1197,118 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6">
         <v>315</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="7" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>285</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6">
+        <v>288</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>258</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6">
+        <v>261</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>228</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>231</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>234</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кроганк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кроганк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -367,6 +367,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Íéñ îà ãñàîé ãéáåìé! Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The graduation exam will put\nyou through the wringer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don\'t be flattened! Meh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Эй, вы двое...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выпускной экзамен проверит вас\nна прочность.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Смотрите, не прогнитесь!\nХе-хе-хе!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Üê, âú äâïå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âúðôòëîïê üëèàíåî ðñïâåñéó âàò\nîà ðñïœîïòóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òíïóñéóå, îå ðñïãîéóåòû!\nÖå-öå-öå!</t>
   </si>
 </sst>
 </file>
@@ -745,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1298,17 +1322,60 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6">
         <v>234</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="7" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="4">
+        <v>198</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>201</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>204</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кроганк.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кроганк.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="145">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -391,6 +391,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Òíïóñéóå, îå ðñïãîéóåòû!\nÖå-öå-öå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Поздравляю вас с\nвыпуском.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Должен признать, я думал, что\nвы двое провалите экзамен. Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meh-heh-heh. Congratulations on\nyour graduation, you two.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll admit that I thought you two\nwould fail the exam. Meh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Ðïèäñàâìÿý âàò ò\nâúðôòëïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïìçåî ðñéèîàóû, ÿ äôíàì, œóï\nâú äâïå ðñïâàìéóå üëèàíåî. Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meh-heh-heh. Team [CS:X]Charm[CR]\ndoesn\'t interest me.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This here is what interests me.\nIt\'s all I care about.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I love doing swaps more than\nanything! Meh-heh-heh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Команда [CS:X]Шарм[CR] мне не\nинтересна.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Меня заботит только мой котёл.\nОн мне очень важен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Больше всего я люблю менять\nвещи! Хе-хе-хе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Ëïíàîäà [CS:X]Šàñí[CR] íîå îå\néîóåñåòîà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íåîÿ èàáïóéó óïìûëï íïê ëïóæì.\nÏî íîå ïœåîû âàçåî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áïìûšå âòåãï ÿ ìýáìý íåîÿóû\nâåþé! Öå-öå-öå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That little [CS:N]Azurill[CR] has me\nworried too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meh-heh-heh. You can\'t fail now!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Малютка [CS:N]Азурилл[CR] тоже заставил\nменя поволноваться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хе-хе-хе. Теперь у вас нет\nправа на ошибку!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íàìýóëà [CS:N]Àèôñéìì[CR] óïçå èàòóàâéì\níåîÿ ðïâïìîïâàóûòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öå-öå-öå. Óåðåñû ô âàò îåó\nðñàâà îà ïšéáëô!</t>
   </si>
 </sst>
 </file>
@@ -421,7 +484,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -462,11 +525,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -487,6 +561,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,17 +1445,119 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="4">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6">
         <v>204</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="7" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>169</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6">
+        <v>172</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>137</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>140</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6">
+        <v>143</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8">
+        <v>97</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="4">
+        <v>71</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
